--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value332.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value332.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6718560433678383</v>
+        <v>0.9096951484680176</v>
       </c>
       <c r="B1">
-        <v>1.059477708176306</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.97680178775693</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.929539287848705</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.366081961352181</v>
+        <v>1.281995296478271</v>
       </c>
     </row>
   </sheetData>
